--- a/futás.xlsx
+++ b/futás.xlsx
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:U12"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,12 +2419,12 @@
         <v>0.55516637478108577</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>600</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I20" s="1">
         <f>E19/$E$1</f>
         <v>0.9550561797752809</v>
@@ -2469,7 +2469,7 @@
         <v>0.72971395213076473</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="93" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
         <v>21</v>
@@ -2490,7 +2490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="69.75" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
         <v>6</v>
@@ -2545,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>11</v>
       </c>
@@ -2564,8 +2564,20 @@
       <c r="J30" s="5">
         <v>667</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="P30" s="1">
+        <f>MAX(H30:H34)/I27-MIN(H30:H34)/I27</f>
+        <v>2.2471910112359605E-2</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>MAX(I30:I34)/J27-MIN(I30:I34)/J27</f>
+        <v>3.2490974729241895E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <f>MAX(J30:J34)/K27-MIN(J30:J34)/K27</f>
+        <v>3.5026269702276736E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="46.5" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
